--- a/reports/Reporte.xlsx
+++ b/reports/Reporte.xlsx
@@ -6205,8 +6205,6 @@
       <c r="B2" t="n">
         <v>9.578099999999999</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -6215,12 +6213,8 @@
       <c r="B3" t="n">
         <v>10.87</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>-0.0010658</v>
       </c>
@@ -6229,8 +6223,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.092696</v>
       </c>

--- a/reports/Reporte.xlsx
+++ b/reports/Reporte.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="8" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Leeme" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKA" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BET" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKAFFHA_valores" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -24,13 +25,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -49,12 +55,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -82,12 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -164,6 +188,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,6 +529,134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Resultado</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Promedio_A</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Promedio_B</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>División</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BET_BI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No hay poros cuello de botella</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BET_P</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hay poros planos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BET_C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hay poros cilindricos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -483,7 +665,7 @@
   </sheetPr>
   <dimension ref="A1:B327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6170,11 +6352,11 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">

--- a/reports/Reporte.xlsx
+++ b/reports/Reporte.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="8" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Leeme" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,34 +15,23 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FFHA" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKA" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BET" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKAFFHA_valores" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -55,42 +45,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -103,20 +63,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -515,7 +469,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -526,134 +480,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Resultado</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Promedio_A</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Promedio_B</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>División</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BET_BI</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No hay poros cuello de botella</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BET_P</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hay poros planos</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BET_C</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hay poros cilindricos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -666,10 +492,10 @@
   <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3308,7 +3134,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4561,7 +4387,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4916,7 +4742,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5248,7 +5074,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5439,7 +5265,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5630,7 +5456,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -6350,69 +6176,124 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Radius of curvature</t>
+          <t>Test</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vapor-Liquid Intrface Area</t>
+          <t>Resultado</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>log(log(P/Po))</t>
+          <t>Promedio_A</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>log(Vads)</t>
+          <t>Promedio_B</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>División</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4.1542</v>
-      </c>
-      <c r="B2" t="n">
-        <v>9.578099999999999</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BET_BI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No hay poros cuello de botella</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3.3475</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10.87</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BET_P</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hay poros planos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="n">
-        <v>-0.0010658</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21327</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="n">
-        <v>0.092696</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17002</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BET_C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hay poros cilindricos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/Reporte.xlsx
+++ b/reports/Reporte.xlsx
@@ -16,6 +16,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKA" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BET" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests3" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKAFFHA_valores" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -167,6 +171,93 @@
       </blipFill>
       <spPr>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -483,6 +574,468 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Resultado</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>División</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BET_BI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No hay poros cuello de botella</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BET_P</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hay poros planos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BET_C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hay poros cilindricos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Resultado</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>División</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BET_BI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No hay poros cuello de botella</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BET_P</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hay poros planos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BET_C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hay poros cilindricos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Resultado</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Promedio_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>División</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BET_BI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No hay poros cuello de botella</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BET_P</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hay poros planos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BET_C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hay poros cilindricos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Radius of curvature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Vapor-Liquid Intrface Area</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>log(log(P/Po))</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>log(Vads)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4.1542</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.578099999999999</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.3475</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>-0.0010658</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21327</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.092696</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/reports/Reporte.xlsx
+++ b/reports/Reporte.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="3" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Leeme" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,26 +15,33 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKA" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BET" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests2" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests3" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKAFFHA_valores" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKAFFHA_valores" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -49,12 +55,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -67,14 +103,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -146,123 +188,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,7 +485,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -575,387 +500,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Resultado</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Promedio_A</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Promedio_B</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>División</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BET_BI</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No hay poros cuello de botella</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BET_P</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hay poros planos</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BET_C</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hay poros cilindricos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Resultado</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Promedio_A</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Promedio_B</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>División</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BET_BI</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No hay poros cuello de botella</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BET_P</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hay poros planos</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BET_C</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hay poros cilindricos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Resultado</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Promedio_A</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Promedio_B</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>División</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BET_BI</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No hay poros cuello de botella</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BET_P</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hay poros planos</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BET_C</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hay poros cilindricos</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -970,22 +514,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Radius of curvature</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Vapor-Liquid Intrface Area</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>log(log(P/Po))</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>log(Vads)</t>
         </is>
@@ -1048,7 +592,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3681,13 +3225,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4921,6 +4465,81 @@
       </c>
       <c r="E72" t="n">
         <v>0.0061454</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MICRO</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0 - 10.5</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.00072361</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>UNCLASS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>10.49 - 18.9</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BOTLE</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>18.89 - 24.8</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PLATE</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>24.79 - 109.7</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CYL</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>109.69 - inf</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4940,7 +4559,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5295,7 +4914,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5627,7 +5246,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -5818,7 +5437,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -6009,7 +5628,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -6731,34 +6350,34 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Resultado</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Promedio_A</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Promedio_B</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>División</t>
         </is>
@@ -6847,6 +6466,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/Reporte.xlsx
+++ b/reports/Reporte.xlsx
@@ -16,6 +16,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BET" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resultados Tests" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NKAFFHA_valores" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BJH" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -188,6 +189,158 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18288000" cy="13716000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="40005000" cy="17145000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="40005000" cy="17145000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18288000" cy="13716000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="18288000" cy="13716000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,8 +695,6 @@
       <c r="B2" t="n">
         <v>9.578099999999999</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -552,12 +703,8 @@
       <c r="B3" t="n">
         <v>10.87</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>-0.0010658</v>
       </c>
@@ -566,8 +713,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.092696</v>
       </c>
@@ -577,6 +722,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3216,6 +3380,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4544,6 +4709,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
